--- a/РАБОЧИЙ СТОЛ/Новороссийск/Новороссийск ЗПФ (1-й транш).xlsx
+++ b/РАБОЧИЙ СТОЛ/Новороссийск/Новороссийск ЗПФ (1-й транш).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\Новороссийск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BE3037-C397-4B68-BC1E-A2B5EAE37FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59649FA3-5579-4A44-AEC0-004A580ACA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>ЗАМОРОЗКА НОВОРОССИЙСК (склад)</t>
   </si>
@@ -130,12 +130,6 @@
   </si>
   <si>
     <t>Крым</t>
-  </si>
-  <si>
-    <t>НВ</t>
-  </si>
-  <si>
-    <t>2000 (на все филиалы</t>
   </si>
 </sst>
 </file>
@@ -186,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -437,64 +431,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -522,6 +463,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,21 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,84 +789,98 @@
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="53.5703125" customWidth="1"/>
-    <col min="11" max="14" width="7.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="58.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="40.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="17" width="7.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="33.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>33</v>
+      <c r="H1" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="I1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="M1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="N1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="S1" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="42"/>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="32"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -954,35 +900,44 @@
       <c r="G3" s="23">
         <v>2500</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="23">
+        <v>600</v>
+      </c>
+      <c r="I3" s="23">
+        <v>400</v>
+      </c>
+      <c r="J3" s="23">
+        <v>622</v>
+      </c>
+      <c r="K3" s="23">
+        <v>400</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="10">
+      <c r="N3" s="10">
         <v>20.6</v>
       </c>
-      <c r="L3" s="10">
+      <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="M3" s="11">
+      <c r="P3" s="11">
         <v>22.8</v>
       </c>
-      <c r="N3" s="10">
+      <c r="Q3" s="10">
         <v>13.8</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="24">
+      <c r="S3" s="24">
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1000,35 +955,38 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21">
+        <v>4200</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="3">
+      <c r="N4" s="3">
         <v>73</v>
       </c>
-      <c r="L4" s="3">
+      <c r="O4" s="3">
         <v>86.4</v>
       </c>
-      <c r="M4" s="7">
+      <c r="P4" s="7">
         <v>199.4</v>
       </c>
-      <c r="N4" s="3">
+      <c r="Q4" s="3">
         <v>193.2</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="25">
+      <c r="S4" s="25">
         <v>264.60000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1046,35 +1004,38 @@
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21">
+        <v>660</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="3">
+      <c r="N5" s="3">
         <v>42</v>
       </c>
-      <c r="L5" s="3">
+      <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
+      <c r="P5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
+      <c r="Q5" s="7">
         <v>154.6</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="25">
+      <c r="S5" s="25">
         <v>131.19999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1091,36 +1052,39 @@
         <v>497</v>
       </c>
       <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="4" t="s">
+      <c r="G6" s="21">
+        <v>497</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3">
+      <c r="N6" s="3">
         <v>7</v>
       </c>
-      <c r="L6" s="6">
+      <c r="O6" s="6">
         <v>21</v>
       </c>
-      <c r="M6" s="3">
+      <c r="P6" s="3">
         <v>15.2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="Q6" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="25">
+      <c r="S6" s="25">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1138,35 +1102,38 @@
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21">
+        <v>210</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="3">
+      <c r="N7" s="3">
         <v>6</v>
       </c>
-      <c r="L7" s="3">
+      <c r="O7" s="3">
         <v>9.6</v>
       </c>
-      <c r="M7" s="7">
+      <c r="P7" s="7">
         <v>32.54</v>
       </c>
-      <c r="N7" s="3">
+      <c r="Q7" s="3">
         <v>13.8</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="25">
+      <c r="S7" s="25">
         <v>200.4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
@@ -1184,49 +1151,55 @@
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="M8" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0</v>
-      </c>
-      <c r="L8" s="19">
-        <v>33</v>
-      </c>
-      <c r="M8" s="20">
-        <v>73</v>
       </c>
       <c r="N8" s="19">
         <v>0</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="19">
+        <v>33</v>
+      </c>
+      <c r="P8" s="20">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
+      <c r="R8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="26">
+      <c r="S8" s="26">
         <v>13.319999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
+  <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
